--- a/grouping-minimze-cost-waste/Combined_Output.xlsx
+++ b/grouping-minimze-cost-waste/Combined_Output.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45612</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="4">

--- a/grouping-minimze-cost-waste/Combined_Output.xlsx
+++ b/grouping-minimze-cost-waste/Combined_Output.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test Project</t>
+          <t>זהו טקסט בעברית שיומר ל</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45616</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="4">
